--- a/微信自动发送数据/万柏林/excelfiles/太原市六城区空气质量日报排名插入.xlsx
+++ b/微信自动发送数据/万柏林/excelfiles/太原市六城区空气质量日报排名插入.xlsx
@@ -43,7 +43,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF7E00"/>
       </patternFill>
     </fill>
   </fills>
@@ -107,10 +107,10 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +486,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="10"/>
-    <col customWidth="1" max="12" min="12" width="15"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1">
+    <row customHeight="1" ht="20" r="1">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>2020年11月3日全市六城区综合指数排名情况</t>
+          <t>2020年3月20日9时区域AQI排名</t>
         </is>
       </c>
       <c r="B1" s="9" t="n"/>
@@ -506,7 +506,6 @@
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
       <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="10" t="inlineStr">
@@ -516,57 +515,52 @@
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>六城区</t>
+          <t>点位名称</t>
         </is>
       </c>
       <c r="C2" s="10" t="inlineStr">
         <is>
-          <t>综合指数</t>
+          <t>SO2</t>
         </is>
       </c>
       <c r="D2" s="10" t="inlineStr">
         <is>
-          <t>环比</t>
+          <t>NO2</t>
         </is>
       </c>
       <c r="E2" s="10" t="inlineStr">
         <is>
-          <t>SO2</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="F2" s="10" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>O3</t>
         </is>
       </c>
       <c r="G2" s="10" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="H2" s="10" t="inlineStr">
         <is>
-          <t>O3-8h</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="I2" s="10" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>AQI</t>
         </is>
       </c>
       <c r="J2" s="10" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>首要污染物</t>
         </is>
       </c>
       <c r="K2" s="10" t="inlineStr">
         <is>
-          <t>AQI</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>首要污染物</t>
+          <t>类别</t>
         </is>
       </c>
     </row>
@@ -576,81 +570,79 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>万柏林区</t>
+          <t>尖草坪区</t>
         </is>
       </c>
       <c r="C3" s="11" t="n">
-        <v>3.22</v>
+        <v>43</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>0.512</v>
+        <v>55</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>17</v>
+        <v>0.6</v>
       </c>
       <c r="F3" s="11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G3" s="11" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="H3" s="11" t="n">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="J3" s="11" t="n">
-        <v>62</v>
-      </c>
-      <c r="K3" s="11" t="n">
-        <v>56</v>
-      </c>
-      <c r="L3" s="11" t="inlineStr">
-        <is>
-          <t>PM10</t>
+        <v>92</v>
+      </c>
+      <c r="J3" s="11" t="inlineStr">
+        <is>
+          <t>PM0</t>
+        </is>
+      </c>
+      <c r="K3" s="11" t="inlineStr">
+        <is>
+          <t>二级</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>尖草坪区</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D4" s="12" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>46</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>69</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="L4" s="12" t="inlineStr">
-        <is>
-          <t>PM10</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>万柏林区</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>140</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>95</v>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>PM0</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="inlineStr">
+        <is>
+          <t>二级</t>
         </is>
       </c>
     </row>
@@ -660,171 +652,167 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>迎泽区</t>
+          <t>晋源区</t>
         </is>
       </c>
       <c r="C5" s="12" t="n">
-        <v>4.27</v>
+        <v>49</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>0.675</v>
+        <v>64</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>27</v>
+        <v>1.3</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>1.2</v>
+        <v>59</v>
       </c>
       <c r="H5" s="12" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="I5" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>75</v>
-      </c>
-      <c r="K5" s="12" t="n">
-        <v>65</v>
-      </c>
-      <c r="L5" s="12" t="inlineStr">
-        <is>
-          <t>NO2</t>
+        <v>105</v>
+      </c>
+      <c r="J5" s="12" t="inlineStr">
+        <is>
+          <t>PM0</t>
+        </is>
+      </c>
+      <c r="K5" s="12" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>晋源区</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D6" s="12" t="n">
-        <v>0.916</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>55</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>34</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>84</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <v>69</v>
-      </c>
-      <c r="L6" s="12" t="inlineStr">
-        <is>
-          <t>NO2</t>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>小店区</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>77</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>54</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>159</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>105</v>
+      </c>
+      <c r="J6" s="11" t="inlineStr">
+        <is>
+          <t>PM0</t>
+        </is>
+      </c>
+      <c r="K6" s="11" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>杏花岭区</t>
         </is>
       </c>
-      <c r="C7" s="12" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>18</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12" t="n">
-        <v>49</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>34</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>86</v>
-      </c>
-      <c r="K7" s="12" t="n">
-        <v>75</v>
-      </c>
-      <c r="L7" s="12" t="inlineStr">
-        <is>
-          <t>NO2</t>
+      <c r="C7" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>71</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>164</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>107</v>
+      </c>
+      <c r="J7" s="11" t="inlineStr">
+        <is>
+          <t>PM0</t>
+        </is>
+      </c>
+      <c r="K7" s="11" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>小店区</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="D8" s="12" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F8" s="12" t="n">
-        <v>58</v>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="n">
-        <v>48</v>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>40</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>100</v>
-      </c>
-      <c r="K8" s="12" t="n">
-        <v>75</v>
-      </c>
-      <c r="L8" s="12" t="inlineStr">
-        <is>
-          <t>PM10</t>
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t>迎泽区</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>189</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>120</v>
+      </c>
+      <c r="J8" s="11" t="inlineStr">
+        <is>
+          <t>PM0</t>
+        </is>
+      </c>
+      <c r="K8" s="11" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
